--- a/biology/Botanique/Aralia_cachemirica/Aralia_cachemirica.xlsx
+++ b/biology/Botanique/Aralia_cachemirica/Aralia_cachemirica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aralia cachemirica  (syn A. macrophylla) est une grande plante herbacée de la famille des Araliaceae, mesurant de 1,5 à 3 m de haut. Ses feuilles tripennées, caduques virent au rouge et au bronze à l'automne. Les inflorescences blanches apparaissant en juin sont similaires à celles des autres espèces du genre. Les fruits sont des drupes de 3 mm de diamètre apparaissant en octobre.
 L'espèce est endémique du nord-ouest de l'Himalaya, et pousse en sous bois humide et riche entre 1 700 m et 4 700 m d'altitude.
